--- a/CORTES DE CAJA/2025/11 NOVIEMBRE/LISTA DE LAS VENTAS SEMANA 46 DE  NOVIEMBRE-25.xlsx
+++ b/CORTES DE CAJA/2025/11 NOVIEMBRE/LISTA DE LAS VENTAS SEMANA 46 DE  NOVIEMBRE-25.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBAC82D-9472-4147-A705-866E736CFE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FBFB14-A550-4E45-A803-A15E683C8533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1173,6 +1173,27 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="7" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1212,26 +1233,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1241,9 +1244,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1837,23 +1837,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
@@ -1866,14 +1866,14 @@
         <f>SUM(Tabla1[Importa])</f>
         <v>3715</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
     </row>
     <row r="4" spans="2:18" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
@@ -1904,19 +1904,19 @@
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>27</v>
       </c>
-      <c r="M4" s="36" t="s">
+      <c r="M4" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C5">
         <f>IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
@@ -1938,21 +1938,21 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>450</v>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="J5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
+      <c r="K5" s="25"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C6">
         <f t="shared" ref="C6:C36" si="0">IF(ISNUMBER(E6), IF(ISNUMBER(C5), C5+1, 1), "")</f>
@@ -1974,19 +1974,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>81</v>
       </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -2008,19 +2008,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>37</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -2042,19 +2042,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>36</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -2076,19 +2076,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>108</v>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -2110,19 +2110,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>630</v>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -2141,19 +2141,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>770</v>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -2175,19 +2175,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>81</v>
       </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -2209,19 +2209,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>85.5</v>
       </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -2240,19 +2240,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>56</v>
       </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -2274,17 +2274,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>279</v>
       </c>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -2306,17 +2306,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>31.5</v>
       </c>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -2335,17 +2335,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>151</v>
       </c>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -2367,17 +2367,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>64</v>
       </c>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
@@ -2399,17 +2399,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>27</v>
       </c>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
@@ -2428,17 +2428,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>65</v>
       </c>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
@@ -2460,17 +2460,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>121.5</v>
       </c>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
@@ -2492,17 +2492,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>31.5</v>
       </c>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
@@ -2528,7 +2528,7 @@
     <row r="24" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
@@ -2550,19 +2550,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>121.5</v>
       </c>
-      <c r="M24" s="32" t="s">
+      <c r="M24" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="32"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
@@ -2584,17 +2584,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>81</v>
       </c>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="33"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
@@ -2616,23 +2616,23 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G26))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>86.5</v>
       </c>
-      <c r="M26" s="31" t="s">
+      <c r="M26" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="N26" s="31"/>
+      <c r="N26" s="38"/>
       <c r="O26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="P26" s="31" t="s">
+      <c r="P26" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
@@ -2651,21 +2651,21 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G27))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>15</v>
       </c>
-      <c r="M27" s="19" t="s">
+      <c r="M27" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="N27" s="20"/>
-      <c r="O27" s="23">
+      <c r="N27" s="27"/>
+      <c r="O27" s="30">
         <v>1015</v>
       </c>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="27"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="34"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
@@ -2684,17 +2684,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G28))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>20</v>
       </c>
-      <c r="M28" s="21"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="30"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="37"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
@@ -2713,17 +2713,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G29))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>20</v>
       </c>
-      <c r="M29" s="19"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="26"/>
-      <c r="R29" s="27"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="34"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
@@ -2745,17 +2745,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G30))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>139</v>
       </c>
-      <c r="M30" s="21"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="30"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="37"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
@@ -2774,12 +2774,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G31))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>10</v>
       </c>
-      <c r="M31" s="19"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="23"/>
-      <c r="P31" s="25"/>
-      <c r="Q31" s="26"/>
-      <c r="R31" s="27"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="33"/>
+      <c r="R31" s="34"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -2794,12 +2794,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G32))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M32" s="21"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="30"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="36"/>
+      <c r="R32" s="37"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -2814,12 +2814,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G33))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M33" s="19"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="25"/>
-      <c r="Q33" s="26"/>
-      <c r="R33" s="27"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="33"/>
+      <c r="R33" s="34"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -2834,12 +2834,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G34))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M34" s="21"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="29"/>
-      <c r="R34" s="30"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="36"/>
+      <c r="R34" s="37"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -2854,12 +2854,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G35))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M35" s="19"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="25"/>
-      <c r="Q35" s="26"/>
-      <c r="R35" s="27"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="32"/>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="34"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -2874,12 +2874,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G36))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M36" s="21"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="24"/>
-      <c r="P36" s="28"/>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="30"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="36"/>
+      <c r="R36" s="37"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -2894,12 +2894,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G37))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M37" s="19"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="23"/>
-      <c r="P37" s="25"/>
-      <c r="Q37" s="26"/>
-      <c r="R37" s="27"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="32"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="34"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -2914,12 +2914,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G38))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M38" s="21"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="24"/>
-      <c r="P38" s="28"/>
-      <c r="Q38" s="29"/>
-      <c r="R38" s="30"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="35"/>
+      <c r="Q38" s="36"/>
+      <c r="R38" s="37"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -2934,12 +2934,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G39))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M39" s="19"/>
-      <c r="N39" s="20"/>
-      <c r="O39" s="23"/>
-      <c r="P39" s="25"/>
-      <c r="Q39" s="26"/>
-      <c r="R39" s="27"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="30"/>
+      <c r="P39" s="32"/>
+      <c r="Q39" s="33"/>
+      <c r="R39" s="34"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -2954,12 +2954,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G40))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M40" s="21"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="28"/>
-      <c r="Q40" s="29"/>
-      <c r="R40" s="30"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="35"/>
+      <c r="Q40" s="36"/>
+      <c r="R40" s="37"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -2974,12 +2974,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G41))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M41" s="19"/>
-      <c r="N41" s="20"/>
-      <c r="O41" s="23"/>
-      <c r="P41" s="25"/>
-      <c r="Q41" s="26"/>
-      <c r="R41" s="27"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="30"/>
+      <c r="P41" s="32"/>
+      <c r="Q41" s="33"/>
+      <c r="R41" s="34"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -2994,12 +2994,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G42))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M42" s="21"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="24"/>
-      <c r="P42" s="28"/>
-      <c r="Q42" s="29"/>
-      <c r="R42" s="30"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="31"/>
+      <c r="P42" s="35"/>
+      <c r="Q42" s="36"/>
+      <c r="R42" s="37"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -3014,12 +3014,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G43))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M43" s="19"/>
-      <c r="N43" s="20"/>
-      <c r="O43" s="23"/>
-      <c r="P43" s="25"/>
-      <c r="Q43" s="26"/>
-      <c r="R43" s="27"/>
+      <c r="M43" s="26"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="30"/>
+      <c r="P43" s="32"/>
+      <c r="Q43" s="33"/>
+      <c r="R43" s="34"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -3034,12 +3034,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G44))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M44" s="21"/>
-      <c r="N44" s="22"/>
-      <c r="O44" s="24"/>
-      <c r="P44" s="28"/>
-      <c r="Q44" s="29"/>
-      <c r="R44" s="30"/>
+      <c r="M44" s="28"/>
+      <c r="N44" s="29"/>
+      <c r="O44" s="31"/>
+      <c r="P44" s="35"/>
+      <c r="Q44" s="36"/>
+      <c r="R44" s="37"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -3054,12 +3054,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G45))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M45" s="19"/>
-      <c r="N45" s="20"/>
-      <c r="O45" s="23"/>
-      <c r="P45" s="25"/>
-      <c r="Q45" s="26"/>
-      <c r="R45" s="27"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="27"/>
+      <c r="O45" s="30"/>
+      <c r="P45" s="32"/>
+      <c r="Q45" s="33"/>
+      <c r="R45" s="34"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B46" s="18" t="str">
@@ -3074,12 +3074,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G46))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M46" s="21"/>
-      <c r="N46" s="22"/>
-      <c r="O46" s="24"/>
-      <c r="P46" s="28"/>
-      <c r="Q46" s="29"/>
-      <c r="R46" s="30"/>
+      <c r="M46" s="28"/>
+      <c r="N46" s="29"/>
+      <c r="O46" s="31"/>
+      <c r="P46" s="35"/>
+      <c r="Q46" s="36"/>
+      <c r="R46" s="37"/>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="str">
@@ -3094,12 +3094,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G47))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M47" s="19"/>
-      <c r="N47" s="20"/>
-      <c r="O47" s="23"/>
-      <c r="P47" s="25"/>
-      <c r="Q47" s="26"/>
-      <c r="R47" s="27"/>
+      <c r="M47" s="26"/>
+      <c r="N47" s="27"/>
+      <c r="O47" s="30"/>
+      <c r="P47" s="32"/>
+      <c r="Q47" s="33"/>
+      <c r="R47" s="34"/>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B48" s="18" t="str">
@@ -3114,12 +3114,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G48))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M48" s="21"/>
-      <c r="N48" s="22"/>
-      <c r="O48" s="24"/>
-      <c r="P48" s="28"/>
-      <c r="Q48" s="29"/>
-      <c r="R48" s="30"/>
+      <c r="M48" s="28"/>
+      <c r="N48" s="29"/>
+      <c r="O48" s="31"/>
+      <c r="P48" s="35"/>
+      <c r="Q48" s="36"/>
+      <c r="R48" s="37"/>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B49" s="18" t="str">
@@ -3134,12 +3134,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G49))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M49" s="19"/>
-      <c r="N49" s="20"/>
-      <c r="O49" s="23"/>
-      <c r="P49" s="25"/>
-      <c r="Q49" s="26"/>
-      <c r="R49" s="27"/>
+      <c r="M49" s="26"/>
+      <c r="N49" s="27"/>
+      <c r="O49" s="30"/>
+      <c r="P49" s="32"/>
+      <c r="Q49" s="33"/>
+      <c r="R49" s="34"/>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B50" s="18" t="str">
@@ -3154,12 +3154,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G50))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M50" s="21"/>
-      <c r="N50" s="22"/>
-      <c r="O50" s="24"/>
-      <c r="P50" s="28"/>
-      <c r="Q50" s="29"/>
-      <c r="R50" s="30"/>
+      <c r="M50" s="28"/>
+      <c r="N50" s="29"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="35"/>
+      <c r="Q50" s="36"/>
+      <c r="R50" s="37"/>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B51" s="18" t="str">
@@ -3174,12 +3174,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G51))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M51" s="19"/>
-      <c r="N51" s="20"/>
-      <c r="O51" s="23"/>
-      <c r="P51" s="25"/>
-      <c r="Q51" s="26"/>
-      <c r="R51" s="27"/>
+      <c r="M51" s="26"/>
+      <c r="N51" s="27"/>
+      <c r="O51" s="30"/>
+      <c r="P51" s="32"/>
+      <c r="Q51" s="33"/>
+      <c r="R51" s="34"/>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B52" s="18" t="str">
@@ -3194,12 +3194,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G52))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M52" s="21"/>
-      <c r="N52" s="22"/>
-      <c r="O52" s="24"/>
-      <c r="P52" s="28"/>
-      <c r="Q52" s="29"/>
-      <c r="R52" s="30"/>
+      <c r="M52" s="28"/>
+      <c r="N52" s="29"/>
+      <c r="O52" s="31"/>
+      <c r="P52" s="35"/>
+      <c r="Q52" s="36"/>
+      <c r="R52" s="37"/>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B53" s="18" t="str">
@@ -3918,19 +3918,33 @@
   </sheetData>
   <autoFilter ref="B4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="48">
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="J5:K14"/>
-    <mergeCell ref="M41:N42"/>
-    <mergeCell ref="M43:N44"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="P41:R42"/>
-    <mergeCell ref="P43:R44"/>
+    <mergeCell ref="M49:N50"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="P49:R50"/>
+    <mergeCell ref="M51:N52"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="P51:R52"/>
+    <mergeCell ref="M45:N46"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="P45:R46"/>
+    <mergeCell ref="M47:N48"/>
+    <mergeCell ref="O47:O48"/>
+    <mergeCell ref="P47:R48"/>
+    <mergeCell ref="P31:R32"/>
+    <mergeCell ref="P33:R34"/>
+    <mergeCell ref="P35:R36"/>
+    <mergeCell ref="P37:R38"/>
+    <mergeCell ref="P39:R40"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="M31:N32"/>
+    <mergeCell ref="M33:N34"/>
+    <mergeCell ref="M35:N36"/>
+    <mergeCell ref="M37:N38"/>
+    <mergeCell ref="M39:N40"/>
     <mergeCell ref="P26:R26"/>
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="M27:N28"/>
@@ -3939,33 +3953,19 @@
     <mergeCell ref="O29:O30"/>
     <mergeCell ref="P27:R28"/>
     <mergeCell ref="P29:R30"/>
-    <mergeCell ref="M31:N32"/>
-    <mergeCell ref="M33:N34"/>
-    <mergeCell ref="M35:N36"/>
-    <mergeCell ref="M37:N38"/>
-    <mergeCell ref="M39:N40"/>
-    <mergeCell ref="O31:O32"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="O37:O38"/>
-    <mergeCell ref="O39:O40"/>
-    <mergeCell ref="P31:R32"/>
-    <mergeCell ref="P33:R34"/>
-    <mergeCell ref="P35:R36"/>
-    <mergeCell ref="P37:R38"/>
-    <mergeCell ref="P39:R40"/>
-    <mergeCell ref="M45:N46"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="P45:R46"/>
-    <mergeCell ref="M47:N48"/>
-    <mergeCell ref="O47:O48"/>
-    <mergeCell ref="P47:R48"/>
-    <mergeCell ref="M49:N50"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="P49:R50"/>
-    <mergeCell ref="M51:N52"/>
-    <mergeCell ref="O51:O52"/>
-    <mergeCell ref="P51:R52"/>
+    <mergeCell ref="M41:N42"/>
+    <mergeCell ref="M43:N44"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="P41:R42"/>
+    <mergeCell ref="P43:R44"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
     <cfRule type="expression" dxfId="13" priority="1">
@@ -4009,23 +4009,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
@@ -4038,14 +4038,14 @@
         <f>SUM(Tabla110[Importa])</f>
         <v>1734.5</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
@@ -4076,17 +4076,17 @@
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>22</v>
       </c>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <f ca="1">IF(Tabla110[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C68" si="0">IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
@@ -4105,21 +4105,21 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>20</v>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="J5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
+      <c r="K5" s="25"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -4141,19 +4141,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>504</v>
       </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -4175,19 +4175,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>85.5</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -4209,19 +4209,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>31.5</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -4243,19 +4243,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>38</v>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -4277,19 +4277,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>74</v>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -4311,19 +4311,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>22</v>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -4345,19 +4345,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>81</v>
       </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -4376,19 +4376,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>20</v>
       </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -4407,19 +4407,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>10</v>
       </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -4438,17 +4438,17 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>20</v>
       </c>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -4467,17 +4467,17 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>180</v>
       </c>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -4496,17 +4496,17 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>25</v>
       </c>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -4528,17 +4528,17 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>121.5</v>
       </c>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
@@ -4557,17 +4557,17 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>142</v>
       </c>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
@@ -4586,17 +4586,17 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>57</v>
       </c>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
@@ -4618,17 +4618,17 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>103</v>
       </c>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
@@ -4647,17 +4647,17 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>15</v>
       </c>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
@@ -4680,7 +4680,7 @@
     <row r="24" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
@@ -4699,19 +4699,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>27</v>
       </c>
-      <c r="M24" s="32" t="s">
+      <c r="M24" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
@@ -4730,17 +4730,17 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>78</v>
       </c>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
@@ -4765,17 +4765,17 @@
       <c r="N26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="31" t="s">
+      <c r="O26" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
@@ -4787,15 +4787,15 @@
       </c>
       <c r="M27" s="13"/>
       <c r="N27" s="15"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="41"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="42"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
@@ -4807,15 +4807,15 @@
       </c>
       <c r="M28" s="13"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="41"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="42"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
@@ -4827,15 +4827,15 @@
       </c>
       <c r="M29" s="13"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="41"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="42"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
@@ -4847,15 +4847,15 @@
       </c>
       <c r="M30" s="13"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="41"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="42"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
@@ -4867,10 +4867,10 @@
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="41"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="42"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -4887,10 +4887,10 @@
       </c>
       <c r="M32" s="13"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="41"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="42"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -4907,10 +4907,10 @@
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="41"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="42"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -4927,10 +4927,10 @@
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="41"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="42"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -4947,10 +4947,10 @@
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="41"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="42"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -4967,10 +4967,10 @@
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="41"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="42"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -4987,10 +4987,10 @@
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="41"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="42"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -5007,10 +5007,10 @@
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="39"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="41"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="42"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -5027,10 +5027,10 @@
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="41"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="42"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -5047,10 +5047,10 @@
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="41"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="42"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -5067,10 +5067,10 @@
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="41"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="42"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -5087,10 +5087,10 @@
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
-      <c r="R42" s="41"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="42"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -5107,10 +5107,10 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="39"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
-      <c r="R43" s="41"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="42"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -5127,10 +5127,10 @@
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="39"/>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="40"/>
-      <c r="R44" s="41"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="42"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -5960,32 +5960,32 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="J5:K14"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
     <mergeCell ref="O44:R44"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="O40:R40"/>
     <mergeCell ref="O41:R41"/>
     <mergeCell ref="O42:R42"/>
     <mergeCell ref="O43:R43"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
     <cfRule type="expression" dxfId="11" priority="1">
@@ -6028,23 +6028,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
@@ -6057,14 +6057,14 @@
         <f>SUM(Tabla111[Importa])</f>
         <v>1439.5</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
@@ -6095,17 +6095,17 @@
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>17</v>
       </c>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <f ca="1">IF(Tabla111[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C5">
         <f>IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
@@ -6124,21 +6124,21 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>250</v>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="J5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
+      <c r="K5" s="25"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C6">
         <f>IF(ISNUMBER(E6), IF(ISNUMBER(C5), C5+1, 1), "")</f>
@@ -6160,19 +6160,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>63</v>
       </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C7">
         <f>IF(ISNUMBER(E7), IF(ISNUMBER(C6), C6+1, 1), "")</f>
@@ -6194,19 +6194,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>43.5</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C8">
         <f t="shared" ref="C8:C68" si="0">IF(ISNUMBER(E8), IF(ISNUMBER(C7), C7+1, 1), "")</f>
@@ -6228,19 +6228,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>155</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -6262,19 +6262,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>76.5</v>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -6293,19 +6293,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>9</v>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -6324,19 +6324,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>57</v>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -6358,19 +6358,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>18</v>
       </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -6392,19 +6392,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>31.5</v>
       </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -6426,19 +6426,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>50.5</v>
       </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -6460,17 +6460,17 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>22.5</v>
       </c>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -6489,17 +6489,17 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>220</v>
       </c>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -6521,17 +6521,17 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>36</v>
       </c>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -6550,17 +6550,17 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>20</v>
       </c>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
@@ -6582,17 +6582,17 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>27</v>
       </c>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
@@ -6611,17 +6611,17 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>10</v>
       </c>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
@@ -6640,17 +6640,17 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>350</v>
       </c>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
@@ -6660,17 +6660,17 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
@@ -6684,7 +6684,7 @@
     <row r="24" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
@@ -6694,19 +6694,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M24" s="32" t="s">
+      <c r="M24" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
@@ -6716,17 +6716,17 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
@@ -6742,17 +6742,17 @@
       <c r="N26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="31" t="s">
+      <c r="O26" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
@@ -6764,15 +6764,15 @@
       </c>
       <c r="M27" s="13"/>
       <c r="N27" s="15"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="41"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="42"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
@@ -6784,15 +6784,15 @@
       </c>
       <c r="M28" s="13"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="41"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="42"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
@@ -6804,15 +6804,15 @@
       </c>
       <c r="M29" s="13"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="41"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="42"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
@@ -6824,15 +6824,15 @@
       </c>
       <c r="M30" s="13"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="41"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="42"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
@@ -6844,10 +6844,10 @@
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="41"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="42"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -6864,10 +6864,10 @@
       </c>
       <c r="M32" s="13"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="41"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="42"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -6884,10 +6884,10 @@
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="41"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="42"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -6904,10 +6904,10 @@
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="41"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="42"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -6924,10 +6924,10 @@
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="41"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="42"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -6944,10 +6944,10 @@
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="41"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="42"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -6964,10 +6964,10 @@
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="41"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="42"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -6984,10 +6984,10 @@
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="39"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="41"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="42"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -7004,10 +7004,10 @@
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="41"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="42"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -7024,10 +7024,10 @@
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="41"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="42"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -7044,10 +7044,10 @@
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="41"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="42"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -7064,10 +7064,10 @@
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
-      <c r="R42" s="41"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="42"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -7084,10 +7084,10 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="39"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
-      <c r="R43" s="41"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="42"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -7104,10 +7104,10 @@
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="39"/>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="40"/>
-      <c r="R44" s="41"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="42"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -7937,32 +7937,32 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="J5:K14"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
     <mergeCell ref="O44:R44"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="O40:R40"/>
     <mergeCell ref="O41:R41"/>
     <mergeCell ref="O42:R42"/>
     <mergeCell ref="O43:R43"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
     <cfRule type="expression" dxfId="9" priority="1">
@@ -8005,23 +8005,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
@@ -8034,14 +8034,14 @@
         <f>SUM(Tabla112[Importa])</f>
         <v>1868</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
@@ -8072,17 +8072,17 @@
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>18</v>
       </c>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <f ca="1">IF(Tabla112[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C68" si="0">IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
@@ -8104,21 +8104,21 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>142.5</v>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="J5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
+      <c r="K5" s="25"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -8140,19 +8140,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>337.5</v>
       </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -8174,19 +8174,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>76.5</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -8208,19 +8208,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>63</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -8242,19 +8242,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>103</v>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -8276,19 +8276,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>31.5</v>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -8310,19 +8310,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>36</v>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -8344,19 +8344,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>79.5</v>
       </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -8375,19 +8375,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>95</v>
       </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -8406,19 +8406,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>75</v>
       </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -8437,17 +8437,17 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>150</v>
       </c>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -8466,17 +8466,17 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>87</v>
       </c>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -8498,17 +8498,17 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>50.5</v>
       </c>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -8530,17 +8530,17 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>135</v>
       </c>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
@@ -8559,17 +8559,17 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>87</v>
       </c>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
@@ -8588,17 +8588,17 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>25</v>
       </c>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
@@ -8620,17 +8620,17 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>103</v>
       </c>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
@@ -8652,17 +8652,17 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>191</v>
       </c>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
@@ -8676,7 +8676,7 @@
     <row r="24" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
@@ -8686,19 +8686,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M24" s="32" t="s">
+      <c r="M24" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
     </row>
     <row r="25" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
@@ -8708,17 +8708,17 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
@@ -8734,17 +8734,17 @@
       <c r="N26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="31" t="s">
+      <c r="O26" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
     </row>
     <row r="27" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
@@ -8756,15 +8756,15 @@
       </c>
       <c r="M27" s="13"/>
       <c r="N27" s="15"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="41"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="42"/>
     </row>
     <row r="28" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
@@ -8776,15 +8776,15 @@
       </c>
       <c r="M28" s="13"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="41"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="42"/>
     </row>
     <row r="29" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
@@ -8796,15 +8796,15 @@
       </c>
       <c r="M29" s="13"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="41"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="42"/>
     </row>
     <row r="30" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
@@ -8816,15 +8816,15 @@
       </c>
       <c r="M30" s="13"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="41"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="42"/>
     </row>
     <row r="31" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
@@ -8836,10 +8836,10 @@
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="41"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="42"/>
     </row>
     <row r="32" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -8856,10 +8856,10 @@
       </c>
       <c r="M32" s="13"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="41"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="42"/>
     </row>
     <row r="33" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -8876,10 +8876,10 @@
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="41"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="42"/>
     </row>
     <row r="34" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -8896,10 +8896,10 @@
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="41"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="42"/>
     </row>
     <row r="35" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -8916,10 +8916,10 @@
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="41"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="42"/>
     </row>
     <row r="36" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -8936,10 +8936,10 @@
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="41"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="42"/>
     </row>
     <row r="37" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -8956,10 +8956,10 @@
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="41"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="42"/>
     </row>
     <row r="38" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -8976,10 +8976,10 @@
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="39"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="41"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="42"/>
     </row>
     <row r="39" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -8996,10 +8996,10 @@
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="41"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="42"/>
     </row>
     <row r="40" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -9016,10 +9016,10 @@
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="41"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="42"/>
     </row>
     <row r="41" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -9036,10 +9036,10 @@
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="41"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="42"/>
     </row>
     <row r="42" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -9056,10 +9056,10 @@
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
-      <c r="R42" s="41"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="42"/>
     </row>
     <row r="43" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -9076,10 +9076,10 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="39"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
-      <c r="R43" s="41"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="42"/>
     </row>
     <row r="44" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -9096,10 +9096,10 @@
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="39"/>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="40"/>
-      <c r="R44" s="41"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="42"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -9929,32 +9929,32 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="J5:K14"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
     <mergeCell ref="O44:R44"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="O40:R40"/>
     <mergeCell ref="O41:R41"/>
     <mergeCell ref="O42:R42"/>
     <mergeCell ref="O43:R43"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
     <cfRule type="expression" dxfId="7" priority="1">
@@ -9998,23 +9998,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
@@ -10027,14 +10027,14 @@
         <f>SUM(Tabla113[Importa])</f>
         <v>3781.5</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
@@ -10065,19 +10065,19 @@
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>18</v>
       </c>
-      <c r="M4" s="36" t="s">
+      <c r="M4" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <f ca="1">IF(Tabla113[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C68" si="0">IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
@@ -10099,21 +10099,21 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>67.5</v>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="J5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
+      <c r="K5" s="25"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -10132,19 +10132,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>10</v>
       </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -10163,19 +10163,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>50</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -10194,19 +10194,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>2520</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -10228,19 +10228,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>9</v>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -10259,19 +10259,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>75</v>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -10293,19 +10293,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>27</v>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -10327,19 +10327,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>27</v>
       </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -10358,19 +10358,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>90</v>
       </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -10389,19 +10389,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>500</v>
       </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -10423,17 +10423,17 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>18</v>
       </c>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -10452,17 +10452,17 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>15</v>
       </c>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -10481,17 +10481,17 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>20</v>
       </c>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -10513,17 +10513,17 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>166.5</v>
       </c>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
@@ -10542,17 +10542,17 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>60</v>
       </c>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
@@ -10574,17 +10574,17 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>78.5</v>
       </c>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
@@ -10606,17 +10606,17 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>38</v>
       </c>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
@@ -10635,17 +10635,17 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>10</v>
       </c>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
@@ -10659,7 +10659,7 @@
     <row r="24" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
@@ -10669,19 +10669,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M24" s="32" t="s">
+      <c r="M24" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
     </row>
     <row r="25" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
@@ -10691,17 +10691,17 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
@@ -10717,17 +10717,17 @@
       <c r="N26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="31" t="s">
+      <c r="O26" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
     </row>
     <row r="27" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
@@ -10743,17 +10743,17 @@
       <c r="N27" s="15">
         <v>1015</v>
       </c>
-      <c r="O27" s="39" t="s">
+      <c r="O27" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="41"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="42"/>
     </row>
     <row r="28" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
@@ -10769,17 +10769,17 @@
       <c r="N28" s="15">
         <v>562</v>
       </c>
-      <c r="O28" s="39" t="s">
+      <c r="O28" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="41"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="42"/>
     </row>
     <row r="29" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
@@ -10795,17 +10795,17 @@
       <c r="N29" s="15">
         <v>1500</v>
       </c>
-      <c r="O29" s="39" t="s">
+      <c r="O29" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="41"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="42"/>
     </row>
     <row r="30" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
@@ -10821,17 +10821,17 @@
       <c r="N30" s="15">
         <v>3077</v>
       </c>
-      <c r="O30" s="39" t="s">
+      <c r="O30" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="41"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="42"/>
     </row>
     <row r="31" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
@@ -10843,10 +10843,10 @@
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="41"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="42"/>
     </row>
     <row r="32" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -10863,10 +10863,10 @@
       </c>
       <c r="M32" s="13"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="41"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="42"/>
     </row>
     <row r="33" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -10883,10 +10883,10 @@
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="41"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="42"/>
     </row>
     <row r="34" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -10903,10 +10903,10 @@
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="41"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="42"/>
     </row>
     <row r="35" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -10923,10 +10923,10 @@
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="41"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="42"/>
     </row>
     <row r="36" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -10943,10 +10943,10 @@
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="41"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="42"/>
     </row>
     <row r="37" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -10963,10 +10963,10 @@
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="41"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="42"/>
     </row>
     <row r="38" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -10983,10 +10983,10 @@
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="39"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="41"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="42"/>
     </row>
     <row r="39" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -11003,10 +11003,10 @@
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="41"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="42"/>
     </row>
     <row r="40" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -11023,10 +11023,10 @@
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="41"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="42"/>
     </row>
     <row r="41" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -11043,10 +11043,10 @@
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="41"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="42"/>
     </row>
     <row r="42" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -11063,10 +11063,10 @@
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
-      <c r="R42" s="41"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="42"/>
     </row>
     <row r="43" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -11083,10 +11083,10 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="39"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
-      <c r="R43" s="41"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="42"/>
     </row>
     <row r="44" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -11103,10 +11103,10 @@
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="39"/>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="40"/>
-      <c r="R44" s="41"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="42"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -11936,32 +11936,32 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="J5:K14"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
     <mergeCell ref="O44:R44"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="O40:R40"/>
     <mergeCell ref="O41:R41"/>
     <mergeCell ref="O42:R42"/>
     <mergeCell ref="O43:R43"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
     <cfRule type="expression" dxfId="5" priority="1">
@@ -11985,7 +11985,7 @@
   <dimension ref="B2:R103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="M4" sqref="M4:R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12004,23 +12004,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
@@ -12033,14 +12033,14 @@
         <f>SUM(Tabla114[Importa])</f>
         <v>2581.5</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
@@ -12071,19 +12071,19 @@
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>17</v>
       </c>
-      <c r="M4" s="36" t="s">
+      <c r="M4" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <f ca="1">IF(Tabla114[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C68" si="0">IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
@@ -12102,21 +12102,21 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>450</v>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="J5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
+      <c r="K5" s="25"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -12138,19 +12138,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>215.5</v>
       </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -12172,19 +12172,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>13.5</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -12206,19 +12206,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>94</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -12240,19 +12240,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>67.5</v>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -12274,19 +12274,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>103</v>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -12305,19 +12305,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>123</v>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -12336,19 +12336,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>57</v>
       </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -12367,19 +12367,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>200</v>
       </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -12398,19 +12398,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>57</v>
       </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -12429,17 +12429,17 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>48</v>
       </c>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -12458,17 +12458,17 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>172</v>
       </c>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -12487,17 +12487,17 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>79</v>
       </c>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -12516,17 +12516,17 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>35</v>
       </c>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
@@ -12545,17 +12545,17 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>142</v>
       </c>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
@@ -12574,17 +12574,17 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>650</v>
       </c>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
@@ -12603,17 +12603,17 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>75</v>
       </c>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
@@ -12623,17 +12623,17 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
@@ -12647,7 +12647,7 @@
     <row r="24" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
@@ -12657,19 +12657,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M24" s="32" t="s">
+      <c r="M24" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
     </row>
     <row r="25" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
@@ -12679,17 +12679,17 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
@@ -12705,17 +12705,17 @@
       <c r="N26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="31" t="s">
+      <c r="O26" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
     </row>
     <row r="27" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
@@ -12731,15 +12731,15 @@
       <c r="N27" s="15">
         <v>67</v>
       </c>
-      <c r="O27" s="39"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="41"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="42"/>
     </row>
     <row r="28" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
@@ -12751,15 +12751,15 @@
       </c>
       <c r="M28" s="13"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="41"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="42"/>
     </row>
     <row r="29" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
@@ -12771,15 +12771,15 @@
       </c>
       <c r="M29" s="13"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="41"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="42"/>
     </row>
     <row r="30" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
@@ -12791,15 +12791,15 @@
       </c>
       <c r="M30" s="13"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="41"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="42"/>
     </row>
     <row r="31" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
@@ -12811,10 +12811,10 @@
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="41"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="42"/>
     </row>
     <row r="32" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -12831,10 +12831,10 @@
       </c>
       <c r="M32" s="13"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="41"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="42"/>
     </row>
     <row r="33" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -12851,10 +12851,10 @@
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="41"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="42"/>
     </row>
     <row r="34" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -12871,10 +12871,10 @@
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="41"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="42"/>
     </row>
     <row r="35" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -12891,10 +12891,10 @@
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="41"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="42"/>
     </row>
     <row r="36" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -12911,10 +12911,10 @@
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="41"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="42"/>
     </row>
     <row r="37" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -12931,10 +12931,10 @@
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="41"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="42"/>
     </row>
     <row r="38" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -12951,10 +12951,10 @@
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="39"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="41"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="42"/>
     </row>
     <row r="39" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -12971,10 +12971,10 @@
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="41"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="42"/>
     </row>
     <row r="40" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -12991,10 +12991,10 @@
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="41"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="42"/>
     </row>
     <row r="41" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -13011,10 +13011,10 @@
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="41"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="42"/>
     </row>
     <row r="42" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -13031,10 +13031,10 @@
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
-      <c r="R42" s="41"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="42"/>
     </row>
     <row r="43" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -13051,10 +13051,10 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="39"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
-      <c r="R43" s="41"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="42"/>
     </row>
     <row r="44" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -13071,10 +13071,10 @@
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="39"/>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="40"/>
-      <c r="R44" s="41"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="42"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -13904,32 +13904,32 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="J5:K14"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
     <mergeCell ref="O44:R44"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="O40:R40"/>
     <mergeCell ref="O41:R41"/>
     <mergeCell ref="O42:R42"/>
     <mergeCell ref="O43:R43"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
     <cfRule type="expression" dxfId="3" priority="1">
@@ -13972,23 +13972,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
@@ -14001,14 +14001,14 @@
         <f>SUM(Tabla115[Importa])</f>
         <v>0</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
@@ -14039,12 +14039,12 @@
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="str">
@@ -14059,21 +14059,21 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="J5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
+      <c r="K5" s="25"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -14083,19 +14083,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -14105,19 +14105,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -14127,19 +14127,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -14149,19 +14149,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -14171,19 +14171,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -14193,19 +14193,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
@@ -14215,19 +14215,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -14237,19 +14237,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
@@ -14259,19 +14259,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
@@ -14281,17 +14281,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
@@ -14301,17 +14301,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
@@ -14321,17 +14321,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
@@ -14341,17 +14341,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
@@ -14361,17 +14361,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
@@ -14381,17 +14381,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
@@ -14401,17 +14401,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
@@ -14421,17 +14421,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
@@ -14445,7 +14445,7 @@
     <row r="24" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
@@ -14455,19 +14455,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M24" s="32" t="s">
+      <c r="M24" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
     </row>
     <row r="25" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
@@ -14477,17 +14477,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
@@ -14503,17 +14503,17 @@
       <c r="N26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="31" t="s">
+      <c r="O26" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
     </row>
     <row r="27" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
@@ -14525,15 +14525,15 @@
       </c>
       <c r="M27" s="13"/>
       <c r="N27" s="15"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="41"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="42"/>
     </row>
     <row r="28" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
@@ -14545,15 +14545,15 @@
       </c>
       <c r="M28" s="13"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="41"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="42"/>
     </row>
     <row r="29" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
@@ -14565,15 +14565,15 @@
       </c>
       <c r="M29" s="13"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="41"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="42"/>
     </row>
     <row r="30" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
@@ -14585,15 +14585,15 @@
       </c>
       <c r="M30" s="13"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="41"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="42"/>
     </row>
     <row r="31" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45976.797498148146</v>
+        <v>45978.76838321759</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
@@ -14605,10 +14605,10 @@
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="41"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="42"/>
     </row>
     <row r="32" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -14625,10 +14625,10 @@
       </c>
       <c r="M32" s="13"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="41"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="42"/>
     </row>
     <row r="33" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -14645,10 +14645,10 @@
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="41"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="42"/>
     </row>
     <row r="34" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -14665,10 +14665,10 @@
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="41"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="42"/>
     </row>
     <row r="35" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -14685,10 +14685,10 @@
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="41"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="42"/>
     </row>
     <row r="36" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -14705,10 +14705,10 @@
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="41"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="42"/>
     </row>
     <row r="37" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -14725,10 +14725,10 @@
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="41"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="42"/>
     </row>
     <row r="38" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -14745,10 +14745,10 @@
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="39"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="41"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="42"/>
     </row>
     <row r="39" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -14765,10 +14765,10 @@
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="41"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="42"/>
     </row>
     <row r="40" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -14785,10 +14785,10 @@
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="41"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="42"/>
     </row>
     <row r="41" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -14805,10 +14805,10 @@
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="41"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="42"/>
     </row>
     <row r="42" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -14825,10 +14825,10 @@
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
-      <c r="R42" s="41"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="42"/>
     </row>
     <row r="43" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -14845,10 +14845,10 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="39"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
-      <c r="R43" s="41"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="42"/>
     </row>
     <row r="44" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -14865,10 +14865,10 @@
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="39"/>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="40"/>
-      <c r="R44" s="41"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="42"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -15698,32 +15698,32 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="J5:K14"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
     <mergeCell ref="O44:R44"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="O40:R40"/>
     <mergeCell ref="O41:R41"/>
     <mergeCell ref="O42:R42"/>
     <mergeCell ref="O43:R43"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
     <cfRule type="expression" dxfId="1" priority="1">
